--- a/form_reporting_templates/Form-3DA-multiple.xlsx
+++ b/form_reporting_templates/Form-3DA-multiple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A688054-413C-423B-9B1E-1725CD388203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608ABB6A-EC22-4AA8-85E6-86F790407020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5DvQh67CqwpXF5nvK7dpPxR3Pt0yB/nZxqejbtUHEzmemyWSbLakjzpL/AJnjHY2PfyZeKC6tZsl2wcqhenc9Q==" workbookSaltValue="SFs4XJpRzZAAYXRJrz5n4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -108,12 +108,6 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>IOTC form 3-DA | metadata</t>
-  </si>
-  <si>
-    <t>IOTC form 3-DA | data</t>
-  </si>
-  <si>
     <t>Identifier</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>UTC time</t>
   </si>
   <si>
-    <t>3-DA-multiple</t>
-  </si>
-  <si>
     <t>Mesh</t>
   </si>
   <si>
@@ -187,6 +178,15 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>IOTC Form 3DA | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 3DA | metadata</t>
+  </si>
+  <si>
+    <t>3DA-multiple</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1583,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="115" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -1607,7 +1607,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
@@ -1676,12 +1676,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1698,7 +1698,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1900,7 +1900,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oVOKhPE9S1Q9Bzl5n8cXEEK2rCzfiRvampvxea5HTKMEHRmGRyP/BkzkabRczgcVxRf7nUUz1d/nYgmdfSqtUg==" saltValue="qKxtM3U0TWCttzKmQsbjGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MfcCSwEFOWs4FDExnK6BxqDOr+Nu2HpOcbaZ+3aOCNYR7OMZW+TyvbVCm8ctcvuqKDcYCQUrHwgLEdugXAeOPw==" saltValue="Ti1Z3TRwuEZqGgotsBbJkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="2" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="115" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -2257,7 +2257,7 @@
       <c r="AB3" s="125"/>
       <c r="AC3" s="76"/>
       <c r="AD3" s="121" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE3" s="122"/>
       <c r="AF3" s="122"/>
@@ -2388,7 +2388,7 @@
       <c r="AA4" s="75"/>
       <c r="AB4" s="75"/>
       <c r="AC4" s="94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD4" s="79"/>
       <c r="AE4" s="80"/>
@@ -2520,7 +2520,7 @@
       <c r="AA5" s="75"/>
       <c r="AB5" s="75"/>
       <c r="AC5" s="95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AD5" s="82"/>
       <c r="AE5" s="83"/>
@@ -2633,18 +2633,18 @@
       <c r="F6" s="127"/>
       <c r="G6" s="127"/>
       <c r="H6" s="129" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="130"/>
       <c r="J6" s="130"/>
       <c r="K6" s="131"/>
       <c r="L6" s="126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M6" s="127"/>
       <c r="N6" s="128"/>
       <c r="O6" s="129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P6" s="130"/>
       <c r="Q6" s="130"/>
@@ -2653,7 +2653,7 @@
       <c r="T6" s="130"/>
       <c r="U6" s="131"/>
       <c r="V6" s="129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W6" s="130"/>
       <c r="X6" s="130"/>
@@ -2662,7 +2662,7 @@
       <c r="AA6" s="130"/>
       <c r="AB6" s="130"/>
       <c r="AC6" s="96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD6" s="82"/>
       <c r="AE6" s="83"/>
@@ -2776,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="47" t="s">
         <v>22</v>
@@ -2785,70 +2785,70 @@
         <v>21</v>
       </c>
       <c r="H7" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="65" t="s">
+      <c r="P7" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="Q7" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="98" t="s">
+      <c r="S7" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="66" t="s">
+      <c r="Y7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="64" t="s">
+      <c r="Z7" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="64" t="s">
+      <c r="AB7" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB7" s="69" t="s">
-        <v>31</v>
-      </c>
       <c r="AC7" s="97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD7" s="85"/>
       <c r="AE7" s="86"/>
@@ -4503,7 +4503,7 @@
       <c r="AB57" s="71"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rgIzjSsB98wv3MfUN56oImyOr8Z2pmQ2NEBKdNOGQ9GXs/Y6rMRej8g8dbYlCsFRSsDmNG4alS7EFFjk/vRfqg==" saltValue="4uNWjybE2OBEOIPlo/cTnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W+DlrEc/YSimQqTx3lJVOCDC5qAfIp7cb9R7j1BtnB4P+qr6XPLdnQ9ALP8Ubn2kgg2e3Hvu4wIPOxmYqMb+ZQ==" saltValue="PXjGASDTOdQYfq7cPLOpjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="AD3:DY3"/>
     <mergeCell ref="B2:AB3"/>

--- a/form_reporting_templates/Form-3DA-multiple.xlsx
+++ b/form_reporting_templates/Form-3DA-multiple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608ABB6A-EC22-4AA8-85E6-86F790407020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAAEAFF-4649-4535-BEC2-B3770ADB4C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5DvQh67CqwpXF5nvK7dpPxR3Pt0yB/nZxqejbtUHEzmemyWSbLakjzpL/AJnjHY2PfyZeKC6tZsl2wcqhenc9Q==" workbookSaltValue="SFs4XJpRzZAAYXRJrz5n4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -54,9 +54,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>3DA-multiple</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1583,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -1604,17 +1604,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -1630,7 +1630,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1676,12 +1676,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1698,7 +1698,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1709,7 +1709,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="24"/>
@@ -1758,12 +1758,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="20"/>
@@ -1771,7 +1771,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
@@ -1782,7 +1782,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="24"/>
@@ -1811,7 +1811,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="24"/>
@@ -1831,7 +1831,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="24"/>
@@ -1860,7 +1860,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21"/>
       <c r="C28" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
@@ -1900,7 +1900,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MfcCSwEFOWs4FDExnK6BxqDOr+Nu2HpOcbaZ+3aOCNYR7OMZW+TyvbVCm8ctcvuqKDcYCQUrHwgLEdugXAeOPw==" saltValue="Ti1Z3TRwuEZqGgotsBbJkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7Fgve3xnV596PBAYh0SWdutIjLWqXsIHhtYj5sPY8ISpdViiqefcI8wtoOKiw7ZTn6ExFz3MqWKOlkb6guB1jQ==" saltValue="2J8QMv/xN0fPT+FJJqpGLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1914,7 +1914,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{145A36E7-23E2-4F23-9423-3ABF5B1644A9}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
     <hyperlink ref="C25" r:id="rId3" location="types" xr:uid="{D5D73A23-873B-4484-A869-D712A7A31856}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="2" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -2257,7 +2257,7 @@
       <c r="AB3" s="125"/>
       <c r="AC3" s="76"/>
       <c r="AD3" s="121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE3" s="122"/>
       <c r="AF3" s="122"/>
@@ -2388,7 +2388,7 @@
       <c r="AA4" s="75"/>
       <c r="AB4" s="75"/>
       <c r="AC4" s="94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD4" s="79"/>
       <c r="AE4" s="80"/>
@@ -2520,7 +2520,7 @@
       <c r="AA5" s="75"/>
       <c r="AB5" s="75"/>
       <c r="AC5" s="95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD5" s="82"/>
       <c r="AE5" s="83"/>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="6" spans="2:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="127"/>
       <c r="D6" s="127"/>
@@ -2633,18 +2633,18 @@
       <c r="F6" s="127"/>
       <c r="G6" s="127"/>
       <c r="H6" s="129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="130"/>
       <c r="J6" s="130"/>
       <c r="K6" s="131"/>
       <c r="L6" s="126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" s="127"/>
       <c r="N6" s="128"/>
       <c r="O6" s="129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="130"/>
       <c r="Q6" s="130"/>
@@ -2653,7 +2653,7 @@
       <c r="T6" s="130"/>
       <c r="U6" s="131"/>
       <c r="V6" s="129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W6" s="130"/>
       <c r="X6" s="130"/>
@@ -2662,7 +2662,7 @@
       <c r="AA6" s="130"/>
       <c r="AB6" s="130"/>
       <c r="AC6" s="96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD6" s="82"/>
       <c r="AE6" s="83"/>
@@ -2767,88 +2767,88 @@
     </row>
     <row r="7" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="100" t="s">
+      <c r="E7" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="H7" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="65" t="s">
+      <c r="U7" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="W7" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="64" t="s">
+      <c r="Y7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="Z7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="64" t="s">
+      <c r="AA7" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="W7" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="X7" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="69" t="s">
-        <v>29</v>
-      </c>
       <c r="AC7" s="97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD7" s="85"/>
       <c r="AE7" s="86"/>

--- a/form_reporting_templates/Form-3DA-multiple.xlsx
+++ b/form_reporting_templates/Form-3DA-multiple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAAEAFF-4649-4535-BEC2-B3770ADB4C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E0FA9E-8A86-43E2-B6D2-B6A94C316762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5DvQh67CqwpXF5nvK7dpPxR3Pt0yB/nZxqejbtUHEzmemyWSbLakjzpL/AJnjHY2PfyZeKC6tZsl2wcqhenc9Q==" workbookSaltValue="SFs4XJpRzZAAYXRJrz5n4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -944,12 +944,6 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,6 +1148,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1937,62 +1937,62 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="103" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="103" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="109" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="101" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="101" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="107" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="54" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="55" customWidth="1"/>
-    <col min="13" max="13" width="10" style="53" customWidth="1"/>
-    <col min="14" max="14" width="10" style="54" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="51" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="53" customWidth="1"/>
-    <col min="17" max="19" width="7.85546875" style="62" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="53" customWidth="1"/>
-    <col min="21" max="21" width="10" style="59" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" style="55" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" style="53" customWidth="1"/>
-    <col min="24" max="26" width="7.85546875" style="62" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" style="53" customWidth="1"/>
-    <col min="28" max="28" width="10" style="72" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" style="78" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="91"/>
-    <col min="31" max="128" width="9.140625" style="92"/>
-    <col min="129" max="129" width="9.140625" style="93"/>
+    <col min="8" max="8" width="7.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="52" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="53" customWidth="1"/>
+    <col min="13" max="13" width="10" style="51" customWidth="1"/>
+    <col min="14" max="14" width="10" style="52" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="49" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="51" customWidth="1"/>
+    <col min="17" max="19" width="7.85546875" style="60" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="51" customWidth="1"/>
+    <col min="21" max="21" width="10" style="57" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" style="53" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" style="51" customWidth="1"/>
+    <col min="24" max="26" width="7.85546875" style="60" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" style="51" customWidth="1"/>
+    <col min="28" max="28" width="10" style="70" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="76" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="89"/>
+    <col min="31" max="128" width="9.140625" style="90"/>
+    <col min="129" max="129" width="9.140625" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:129" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="104"/>
+      <c r="E1" s="102"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="56"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="54"/>
       <c r="AC1"/>
       <c r="AD1"/>
       <c r="AE1"/>
@@ -2125,107 +2125,107 @@
       <c r="Z2" s="116"/>
       <c r="AA2" s="116"/>
       <c r="AB2" s="116"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="73"/>
-      <c r="BD2" s="73"/>
-      <c r="BE2" s="73"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="73"/>
-      <c r="BH2" s="73"/>
-      <c r="BI2" s="73"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="73"/>
-      <c r="BL2" s="73"/>
-      <c r="BM2" s="73"/>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="73"/>
-      <c r="BP2" s="73"/>
-      <c r="BQ2" s="73"/>
-      <c r="BR2" s="73"/>
-      <c r="BS2" s="73"/>
-      <c r="BT2" s="73"/>
-      <c r="BU2" s="73"/>
-      <c r="BV2" s="73"/>
-      <c r="BW2" s="73"/>
-      <c r="BX2" s="73"/>
-      <c r="BY2" s="73"/>
-      <c r="BZ2" s="73"/>
-      <c r="CA2" s="73"/>
-      <c r="CB2" s="73"/>
-      <c r="CC2" s="73"/>
-      <c r="CD2" s="73"/>
-      <c r="CE2" s="73"/>
-      <c r="CF2" s="73"/>
-      <c r="CG2" s="73"/>
-      <c r="CH2" s="73"/>
-      <c r="CI2" s="73"/>
-      <c r="CJ2" s="73"/>
-      <c r="CK2" s="73"/>
-      <c r="CL2" s="73"/>
-      <c r="CM2" s="73"/>
-      <c r="CN2" s="73"/>
-      <c r="CO2" s="73"/>
-      <c r="CP2" s="73"/>
-      <c r="CQ2" s="73"/>
-      <c r="CR2" s="73"/>
-      <c r="CS2" s="73"/>
-      <c r="CT2" s="73"/>
-      <c r="CU2" s="73"/>
-      <c r="CV2" s="73"/>
-      <c r="CW2" s="73"/>
-      <c r="CX2" s="73"/>
-      <c r="CY2" s="73"/>
-      <c r="CZ2" s="73"/>
-      <c r="DA2" s="73"/>
-      <c r="DB2" s="73"/>
-      <c r="DC2" s="73"/>
-      <c r="DD2" s="73"/>
-      <c r="DE2" s="73"/>
-      <c r="DF2" s="73"/>
-      <c r="DG2" s="73"/>
-      <c r="DH2" s="73"/>
-      <c r="DI2" s="73"/>
-      <c r="DJ2" s="73"/>
-      <c r="DK2" s="73"/>
-      <c r="DL2" s="73"/>
-      <c r="DM2" s="73"/>
-      <c r="DN2" s="73"/>
-      <c r="DO2" s="73"/>
-      <c r="DP2" s="73"/>
-      <c r="DQ2" s="73"/>
-      <c r="DR2" s="73"/>
-      <c r="DS2" s="73"/>
-      <c r="DT2" s="73"/>
-      <c r="DU2" s="73"/>
-      <c r="DV2" s="73"/>
-      <c r="DW2" s="73"/>
-      <c r="DX2" s="73"/>
-      <c r="DY2" s="74"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="71"/>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="71"/>
+      <c r="BO2" s="71"/>
+      <c r="BP2" s="71"/>
+      <c r="BQ2" s="71"/>
+      <c r="BR2" s="71"/>
+      <c r="BS2" s="71"/>
+      <c r="BT2" s="71"/>
+      <c r="BU2" s="71"/>
+      <c r="BV2" s="71"/>
+      <c r="BW2" s="71"/>
+      <c r="BX2" s="71"/>
+      <c r="BY2" s="71"/>
+      <c r="BZ2" s="71"/>
+      <c r="CA2" s="71"/>
+      <c r="CB2" s="71"/>
+      <c r="CC2" s="71"/>
+      <c r="CD2" s="71"/>
+      <c r="CE2" s="71"/>
+      <c r="CF2" s="71"/>
+      <c r="CG2" s="71"/>
+      <c r="CH2" s="71"/>
+      <c r="CI2" s="71"/>
+      <c r="CJ2" s="71"/>
+      <c r="CK2" s="71"/>
+      <c r="CL2" s="71"/>
+      <c r="CM2" s="71"/>
+      <c r="CN2" s="71"/>
+      <c r="CO2" s="71"/>
+      <c r="CP2" s="71"/>
+      <c r="CQ2" s="71"/>
+      <c r="CR2" s="71"/>
+      <c r="CS2" s="71"/>
+      <c r="CT2" s="71"/>
+      <c r="CU2" s="71"/>
+      <c r="CV2" s="71"/>
+      <c r="CW2" s="71"/>
+      <c r="CX2" s="71"/>
+      <c r="CY2" s="71"/>
+      <c r="CZ2" s="71"/>
+      <c r="DA2" s="71"/>
+      <c r="DB2" s="71"/>
+      <c r="DC2" s="71"/>
+      <c r="DD2" s="71"/>
+      <c r="DE2" s="71"/>
+      <c r="DF2" s="71"/>
+      <c r="DG2" s="71"/>
+      <c r="DH2" s="71"/>
+      <c r="DI2" s="71"/>
+      <c r="DJ2" s="71"/>
+      <c r="DK2" s="71"/>
+      <c r="DL2" s="71"/>
+      <c r="DM2" s="71"/>
+      <c r="DN2" s="71"/>
+      <c r="DO2" s="71"/>
+      <c r="DP2" s="71"/>
+      <c r="DQ2" s="71"/>
+      <c r="DR2" s="71"/>
+      <c r="DS2" s="71"/>
+      <c r="DT2" s="71"/>
+      <c r="DU2" s="71"/>
+      <c r="DV2" s="71"/>
+      <c r="DW2" s="71"/>
+      <c r="DX2" s="71"/>
+      <c r="DY2" s="72"/>
     </row>
     <row r="3" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="124"/>
@@ -2255,7 +2255,7 @@
       <c r="Z3" s="125"/>
       <c r="AA3" s="125"/>
       <c r="AB3" s="125"/>
-      <c r="AC3" s="76"/>
+      <c r="AC3" s="74"/>
       <c r="AD3" s="121" t="s">
         <v>34</v>
       </c>
@@ -2360,268 +2360,268 @@
       <c r="DY3" s="123"/>
     </row>
     <row r="4" spans="2:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="94" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="80"/>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="80"/>
-      <c r="BM4" s="80"/>
-      <c r="BN4" s="80"/>
-      <c r="BO4" s="80"/>
-      <c r="BP4" s="80"/>
-      <c r="BQ4" s="80"/>
-      <c r="BR4" s="80"/>
-      <c r="BS4" s="80"/>
-      <c r="BT4" s="80"/>
-      <c r="BU4" s="80"/>
-      <c r="BV4" s="80"/>
-      <c r="BW4" s="80"/>
-      <c r="BX4" s="80"/>
-      <c r="BY4" s="80"/>
-      <c r="BZ4" s="80"/>
-      <c r="CA4" s="80"/>
-      <c r="CB4" s="80"/>
-      <c r="CC4" s="80"/>
-      <c r="CD4" s="80"/>
-      <c r="CE4" s="80"/>
-      <c r="CF4" s="80"/>
-      <c r="CG4" s="80"/>
-      <c r="CH4" s="80"/>
-      <c r="CI4" s="80"/>
-      <c r="CJ4" s="80"/>
-      <c r="CK4" s="80"/>
-      <c r="CL4" s="80"/>
-      <c r="CM4" s="80"/>
-      <c r="CN4" s="80"/>
-      <c r="CO4" s="80"/>
-      <c r="CP4" s="80"/>
-      <c r="CQ4" s="80"/>
-      <c r="CR4" s="80"/>
-      <c r="CS4" s="80"/>
-      <c r="CT4" s="80"/>
-      <c r="CU4" s="80"/>
-      <c r="CV4" s="80"/>
-      <c r="CW4" s="80"/>
-      <c r="CX4" s="80"/>
-      <c r="CY4" s="80"/>
-      <c r="CZ4" s="80"/>
-      <c r="DA4" s="80"/>
-      <c r="DB4" s="80"/>
-      <c r="DC4" s="80"/>
-      <c r="DD4" s="80"/>
-      <c r="DE4" s="80"/>
-      <c r="DF4" s="80"/>
-      <c r="DG4" s="80"/>
-      <c r="DH4" s="80"/>
-      <c r="DI4" s="80"/>
-      <c r="DJ4" s="80"/>
-      <c r="DK4" s="80"/>
-      <c r="DL4" s="80"/>
-      <c r="DM4" s="80"/>
-      <c r="DN4" s="80"/>
-      <c r="DO4" s="80"/>
-      <c r="DP4" s="80"/>
-      <c r="DQ4" s="80"/>
-      <c r="DR4" s="80"/>
-      <c r="DS4" s="80"/>
-      <c r="DT4" s="80"/>
-      <c r="DU4" s="80"/>
-      <c r="DV4" s="80"/>
-      <c r="DW4" s="80"/>
-      <c r="DX4" s="80"/>
-      <c r="DY4" s="81"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="78"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="78"/>
+      <c r="BM4" s="78"/>
+      <c r="BN4" s="78"/>
+      <c r="BO4" s="78"/>
+      <c r="BP4" s="78"/>
+      <c r="BQ4" s="78"/>
+      <c r="BR4" s="78"/>
+      <c r="BS4" s="78"/>
+      <c r="BT4" s="78"/>
+      <c r="BU4" s="78"/>
+      <c r="BV4" s="78"/>
+      <c r="BW4" s="78"/>
+      <c r="BX4" s="78"/>
+      <c r="BY4" s="78"/>
+      <c r="BZ4" s="78"/>
+      <c r="CA4" s="78"/>
+      <c r="CB4" s="78"/>
+      <c r="CC4" s="78"/>
+      <c r="CD4" s="78"/>
+      <c r="CE4" s="78"/>
+      <c r="CF4" s="78"/>
+      <c r="CG4" s="78"/>
+      <c r="CH4" s="78"/>
+      <c r="CI4" s="78"/>
+      <c r="CJ4" s="78"/>
+      <c r="CK4" s="78"/>
+      <c r="CL4" s="78"/>
+      <c r="CM4" s="78"/>
+      <c r="CN4" s="78"/>
+      <c r="CO4" s="78"/>
+      <c r="CP4" s="78"/>
+      <c r="CQ4" s="78"/>
+      <c r="CR4" s="78"/>
+      <c r="CS4" s="78"/>
+      <c r="CT4" s="78"/>
+      <c r="CU4" s="78"/>
+      <c r="CV4" s="78"/>
+      <c r="CW4" s="78"/>
+      <c r="CX4" s="78"/>
+      <c r="CY4" s="78"/>
+      <c r="CZ4" s="78"/>
+      <c r="DA4" s="78"/>
+      <c r="DB4" s="78"/>
+      <c r="DC4" s="78"/>
+      <c r="DD4" s="78"/>
+      <c r="DE4" s="78"/>
+      <c r="DF4" s="78"/>
+      <c r="DG4" s="78"/>
+      <c r="DH4" s="78"/>
+      <c r="DI4" s="78"/>
+      <c r="DJ4" s="78"/>
+      <c r="DK4" s="78"/>
+      <c r="DL4" s="78"/>
+      <c r="DM4" s="78"/>
+      <c r="DN4" s="78"/>
+      <c r="DO4" s="78"/>
+      <c r="DP4" s="78"/>
+      <c r="DQ4" s="78"/>
+      <c r="DR4" s="78"/>
+      <c r="DS4" s="78"/>
+      <c r="DT4" s="78"/>
+      <c r="DU4" s="78"/>
+      <c r="DV4" s="78"/>
+      <c r="DW4" s="78"/>
+      <c r="DX4" s="78"/>
+      <c r="DY4" s="79"/>
     </row>
     <row r="5" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="95" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="83"/>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="83"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="83"/>
-      <c r="AP5" s="83"/>
-      <c r="AQ5" s="83"/>
-      <c r="AR5" s="83"/>
-      <c r="AS5" s="83"/>
-      <c r="AT5" s="83"/>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="83"/>
-      <c r="BG5" s="83"/>
-      <c r="BH5" s="83"/>
-      <c r="BI5" s="83"/>
-      <c r="BJ5" s="83"/>
-      <c r="BK5" s="83"/>
-      <c r="BL5" s="83"/>
-      <c r="BM5" s="83"/>
-      <c r="BN5" s="83"/>
-      <c r="BO5" s="83"/>
-      <c r="BP5" s="83"/>
-      <c r="BQ5" s="83"/>
-      <c r="BR5" s="83"/>
-      <c r="BS5" s="83"/>
-      <c r="BT5" s="83"/>
-      <c r="BU5" s="83"/>
-      <c r="BV5" s="83"/>
-      <c r="BW5" s="83"/>
-      <c r="BX5" s="83"/>
-      <c r="BY5" s="83"/>
-      <c r="BZ5" s="83"/>
-      <c r="CA5" s="83"/>
-      <c r="CB5" s="83"/>
-      <c r="CC5" s="83"/>
-      <c r="CD5" s="83"/>
-      <c r="CE5" s="83"/>
-      <c r="CF5" s="83"/>
-      <c r="CG5" s="83"/>
-      <c r="CH5" s="83"/>
-      <c r="CI5" s="83"/>
-      <c r="CJ5" s="83"/>
-      <c r="CK5" s="83"/>
-      <c r="CL5" s="83"/>
-      <c r="CM5" s="83"/>
-      <c r="CN5" s="83"/>
-      <c r="CO5" s="83"/>
-      <c r="CP5" s="83"/>
-      <c r="CQ5" s="83"/>
-      <c r="CR5" s="83"/>
-      <c r="CS5" s="83"/>
-      <c r="CT5" s="83"/>
-      <c r="CU5" s="83"/>
-      <c r="CV5" s="83"/>
-      <c r="CW5" s="83"/>
-      <c r="CX5" s="83"/>
-      <c r="CY5" s="83"/>
-      <c r="CZ5" s="83"/>
-      <c r="DA5" s="83"/>
-      <c r="DB5" s="83"/>
-      <c r="DC5" s="83"/>
-      <c r="DD5" s="83"/>
-      <c r="DE5" s="83"/>
-      <c r="DF5" s="83"/>
-      <c r="DG5" s="83"/>
-      <c r="DH5" s="83"/>
-      <c r="DI5" s="83"/>
-      <c r="DJ5" s="83"/>
-      <c r="DK5" s="83"/>
-      <c r="DL5" s="83"/>
-      <c r="DM5" s="83"/>
-      <c r="DN5" s="83"/>
-      <c r="DO5" s="83"/>
-      <c r="DP5" s="83"/>
-      <c r="DQ5" s="83"/>
-      <c r="DR5" s="83"/>
-      <c r="DS5" s="83"/>
-      <c r="DT5" s="83"/>
-      <c r="DU5" s="83"/>
-      <c r="DV5" s="83"/>
-      <c r="DW5" s="83"/>
-      <c r="DX5" s="83"/>
-      <c r="DY5" s="84"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="81"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="81"/>
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="81"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="81"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="81"/>
+      <c r="AV5" s="81"/>
+      <c r="AW5" s="81"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="81"/>
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="81"/>
+      <c r="BD5" s="81"/>
+      <c r="BE5" s="81"/>
+      <c r="BF5" s="81"/>
+      <c r="BG5" s="81"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="81"/>
+      <c r="BJ5" s="81"/>
+      <c r="BK5" s="81"/>
+      <c r="BL5" s="81"/>
+      <c r="BM5" s="81"/>
+      <c r="BN5" s="81"/>
+      <c r="BO5" s="81"/>
+      <c r="BP5" s="81"/>
+      <c r="BQ5" s="81"/>
+      <c r="BR5" s="81"/>
+      <c r="BS5" s="81"/>
+      <c r="BT5" s="81"/>
+      <c r="BU5" s="81"/>
+      <c r="BV5" s="81"/>
+      <c r="BW5" s="81"/>
+      <c r="BX5" s="81"/>
+      <c r="BY5" s="81"/>
+      <c r="BZ5" s="81"/>
+      <c r="CA5" s="81"/>
+      <c r="CB5" s="81"/>
+      <c r="CC5" s="81"/>
+      <c r="CD5" s="81"/>
+      <c r="CE5" s="81"/>
+      <c r="CF5" s="81"/>
+      <c r="CG5" s="81"/>
+      <c r="CH5" s="81"/>
+      <c r="CI5" s="81"/>
+      <c r="CJ5" s="81"/>
+      <c r="CK5" s="81"/>
+      <c r="CL5" s="81"/>
+      <c r="CM5" s="81"/>
+      <c r="CN5" s="81"/>
+      <c r="CO5" s="81"/>
+      <c r="CP5" s="81"/>
+      <c r="CQ5" s="81"/>
+      <c r="CR5" s="81"/>
+      <c r="CS5" s="81"/>
+      <c r="CT5" s="81"/>
+      <c r="CU5" s="81"/>
+      <c r="CV5" s="81"/>
+      <c r="CW5" s="81"/>
+      <c r="CX5" s="81"/>
+      <c r="CY5" s="81"/>
+      <c r="CZ5" s="81"/>
+      <c r="DA5" s="81"/>
+      <c r="DB5" s="81"/>
+      <c r="DC5" s="81"/>
+      <c r="DD5" s="81"/>
+      <c r="DE5" s="81"/>
+      <c r="DF5" s="81"/>
+      <c r="DG5" s="81"/>
+      <c r="DH5" s="81"/>
+      <c r="DI5" s="81"/>
+      <c r="DJ5" s="81"/>
+      <c r="DK5" s="81"/>
+      <c r="DL5" s="81"/>
+      <c r="DM5" s="81"/>
+      <c r="DN5" s="81"/>
+      <c r="DO5" s="81"/>
+      <c r="DP5" s="81"/>
+      <c r="DQ5" s="81"/>
+      <c r="DR5" s="81"/>
+      <c r="DS5" s="81"/>
+      <c r="DT5" s="81"/>
+      <c r="DU5" s="81"/>
+      <c r="DV5" s="81"/>
+      <c r="DW5" s="81"/>
+      <c r="DX5" s="81"/>
+      <c r="DY5" s="82"/>
     </row>
     <row r="6" spans="2:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="126" t="s">
@@ -2661,301 +2661,301 @@
       <c r="Z6" s="130"/>
       <c r="AA6" s="130"/>
       <c r="AB6" s="130"/>
-      <c r="AC6" s="96" t="s">
+      <c r="AC6" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="83"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="83"/>
-      <c r="AP6" s="83"/>
-      <c r="AQ6" s="83"/>
-      <c r="AR6" s="83"/>
-      <c r="AS6" s="83"/>
-      <c r="AT6" s="83"/>
-      <c r="AU6" s="83"/>
-      <c r="AV6" s="83"/>
-      <c r="AW6" s="83"/>
-      <c r="AX6" s="83"/>
-      <c r="AY6" s="83"/>
-      <c r="AZ6" s="83"/>
-      <c r="BA6" s="83"/>
-      <c r="BB6" s="83"/>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="83"/>
-      <c r="BE6" s="83"/>
-      <c r="BF6" s="83"/>
-      <c r="BG6" s="83"/>
-      <c r="BH6" s="83"/>
-      <c r="BI6" s="83"/>
-      <c r="BJ6" s="83"/>
-      <c r="BK6" s="83"/>
-      <c r="BL6" s="83"/>
-      <c r="BM6" s="83"/>
-      <c r="BN6" s="83"/>
-      <c r="BO6" s="83"/>
-      <c r="BP6" s="83"/>
-      <c r="BQ6" s="83"/>
-      <c r="BR6" s="83"/>
-      <c r="BS6" s="83"/>
-      <c r="BT6" s="83"/>
-      <c r="BU6" s="83"/>
-      <c r="BV6" s="83"/>
-      <c r="BW6" s="83"/>
-      <c r="BX6" s="83"/>
-      <c r="BY6" s="83"/>
-      <c r="BZ6" s="83"/>
-      <c r="CA6" s="83"/>
-      <c r="CB6" s="83"/>
-      <c r="CC6" s="83"/>
-      <c r="CD6" s="83"/>
-      <c r="CE6" s="83"/>
-      <c r="CF6" s="83"/>
-      <c r="CG6" s="83"/>
-      <c r="CH6" s="83"/>
-      <c r="CI6" s="83"/>
-      <c r="CJ6" s="83"/>
-      <c r="CK6" s="83"/>
-      <c r="CL6" s="83"/>
-      <c r="CM6" s="83"/>
-      <c r="CN6" s="83"/>
-      <c r="CO6" s="83"/>
-      <c r="CP6" s="83"/>
-      <c r="CQ6" s="83"/>
-      <c r="CR6" s="83"/>
-      <c r="CS6" s="83"/>
-      <c r="CT6" s="83"/>
-      <c r="CU6" s="83"/>
-      <c r="CV6" s="83"/>
-      <c r="CW6" s="83"/>
-      <c r="CX6" s="83"/>
-      <c r="CY6" s="83"/>
-      <c r="CZ6" s="83"/>
-      <c r="DA6" s="83"/>
-      <c r="DB6" s="83"/>
-      <c r="DC6" s="83"/>
-      <c r="DD6" s="83"/>
-      <c r="DE6" s="83"/>
-      <c r="DF6" s="83"/>
-      <c r="DG6" s="83"/>
-      <c r="DH6" s="83"/>
-      <c r="DI6" s="83"/>
-      <c r="DJ6" s="83"/>
-      <c r="DK6" s="83"/>
-      <c r="DL6" s="83"/>
-      <c r="DM6" s="83"/>
-      <c r="DN6" s="83"/>
-      <c r="DO6" s="83"/>
-      <c r="DP6" s="83"/>
-      <c r="DQ6" s="83"/>
-      <c r="DR6" s="83"/>
-      <c r="DS6" s="83"/>
-      <c r="DT6" s="83"/>
-      <c r="DU6" s="83"/>
-      <c r="DV6" s="83"/>
-      <c r="DW6" s="83"/>
-      <c r="DX6" s="83"/>
-      <c r="DY6" s="84"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="81"/>
+      <c r="AK6" s="81"/>
+      <c r="AL6" s="81"/>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="81"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="81"/>
+      <c r="AQ6" s="81"/>
+      <c r="AR6" s="81"/>
+      <c r="AS6" s="81"/>
+      <c r="AT6" s="81"/>
+      <c r="AU6" s="81"/>
+      <c r="AV6" s="81"/>
+      <c r="AW6" s="81"/>
+      <c r="AX6" s="81"/>
+      <c r="AY6" s="81"/>
+      <c r="AZ6" s="81"/>
+      <c r="BA6" s="81"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="81"/>
+      <c r="BD6" s="81"/>
+      <c r="BE6" s="81"/>
+      <c r="BF6" s="81"/>
+      <c r="BG6" s="81"/>
+      <c r="BH6" s="81"/>
+      <c r="BI6" s="81"/>
+      <c r="BJ6" s="81"/>
+      <c r="BK6" s="81"/>
+      <c r="BL6" s="81"/>
+      <c r="BM6" s="81"/>
+      <c r="BN6" s="81"/>
+      <c r="BO6" s="81"/>
+      <c r="BP6" s="81"/>
+      <c r="BQ6" s="81"/>
+      <c r="BR6" s="81"/>
+      <c r="BS6" s="81"/>
+      <c r="BT6" s="81"/>
+      <c r="BU6" s="81"/>
+      <c r="BV6" s="81"/>
+      <c r="BW6" s="81"/>
+      <c r="BX6" s="81"/>
+      <c r="BY6" s="81"/>
+      <c r="BZ6" s="81"/>
+      <c r="CA6" s="81"/>
+      <c r="CB6" s="81"/>
+      <c r="CC6" s="81"/>
+      <c r="CD6" s="81"/>
+      <c r="CE6" s="81"/>
+      <c r="CF6" s="81"/>
+      <c r="CG6" s="81"/>
+      <c r="CH6" s="81"/>
+      <c r="CI6" s="81"/>
+      <c r="CJ6" s="81"/>
+      <c r="CK6" s="81"/>
+      <c r="CL6" s="81"/>
+      <c r="CM6" s="81"/>
+      <c r="CN6" s="81"/>
+      <c r="CO6" s="81"/>
+      <c r="CP6" s="81"/>
+      <c r="CQ6" s="81"/>
+      <c r="CR6" s="81"/>
+      <c r="CS6" s="81"/>
+      <c r="CT6" s="81"/>
+      <c r="CU6" s="81"/>
+      <c r="CV6" s="81"/>
+      <c r="CW6" s="81"/>
+      <c r="CX6" s="81"/>
+      <c r="CY6" s="81"/>
+      <c r="CZ6" s="81"/>
+      <c r="DA6" s="81"/>
+      <c r="DB6" s="81"/>
+      <c r="DC6" s="81"/>
+      <c r="DD6" s="81"/>
+      <c r="DE6" s="81"/>
+      <c r="DF6" s="81"/>
+      <c r="DG6" s="81"/>
+      <c r="DH6" s="81"/>
+      <c r="DI6" s="81"/>
+      <c r="DJ6" s="81"/>
+      <c r="DK6" s="81"/>
+      <c r="DL6" s="81"/>
+      <c r="DM6" s="81"/>
+      <c r="DN6" s="81"/>
+      <c r="DO6" s="81"/>
+      <c r="DP6" s="81"/>
+      <c r="DQ6" s="81"/>
+      <c r="DR6" s="81"/>
+      <c r="DS6" s="81"/>
+      <c r="DT6" s="81"/>
+      <c r="DU6" s="81"/>
+      <c r="DV6" s="81"/>
+      <c r="DW6" s="81"/>
+      <c r="DX6" s="81"/>
+      <c r="DY6" s="82"/>
     </row>
     <row r="7" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="99" t="s">
+      <c r="H7" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="49" t="s">
+      <c r="L7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="98" t="s">
+      <c r="M7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="66" t="s">
+      <c r="N7" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="O7" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="64" t="s">
+      <c r="P7" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="64" t="s">
+      <c r="Q7" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="R7" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="64" t="s">
+      <c r="S7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="64" t="s">
+      <c r="T7" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="68" t="s">
+      <c r="U7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="65" t="s">
+      <c r="V7" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="64" t="s">
+      <c r="W7" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="64" t="s">
+      <c r="X7" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="64" t="s">
+      <c r="Y7" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="Z7" s="64" t="s">
+      <c r="Z7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" s="64" t="s">
+      <c r="AA7" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AB7" s="69" t="s">
+      <c r="AB7" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AC7" s="97" t="s">
+      <c r="AC7" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="86"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="86"/>
-      <c r="AO7" s="86"/>
-      <c r="AP7" s="86"/>
-      <c r="AQ7" s="86"/>
-      <c r="AR7" s="86"/>
-      <c r="AS7" s="86"/>
-      <c r="AT7" s="86"/>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="86"/>
-      <c r="AW7" s="86"/>
-      <c r="AX7" s="86"/>
-      <c r="AY7" s="86"/>
-      <c r="AZ7" s="86"/>
-      <c r="BA7" s="86"/>
-      <c r="BB7" s="86"/>
-      <c r="BC7" s="86"/>
-      <c r="BD7" s="86"/>
-      <c r="BE7" s="86"/>
-      <c r="BF7" s="86"/>
-      <c r="BG7" s="86"/>
-      <c r="BH7" s="86"/>
-      <c r="BI7" s="86"/>
-      <c r="BJ7" s="86"/>
-      <c r="BK7" s="86"/>
-      <c r="BL7" s="86"/>
-      <c r="BM7" s="86"/>
-      <c r="BN7" s="86"/>
-      <c r="BO7" s="86"/>
-      <c r="BP7" s="86"/>
-      <c r="BQ7" s="86"/>
-      <c r="BR7" s="86"/>
-      <c r="BS7" s="86"/>
-      <c r="BT7" s="86"/>
-      <c r="BU7" s="86"/>
-      <c r="BV7" s="86"/>
-      <c r="BW7" s="86"/>
-      <c r="BX7" s="86"/>
-      <c r="BY7" s="86"/>
-      <c r="BZ7" s="86"/>
-      <c r="CA7" s="86"/>
-      <c r="CB7" s="86"/>
-      <c r="CC7" s="86"/>
-      <c r="CD7" s="86"/>
-      <c r="CE7" s="86"/>
-      <c r="CF7" s="86"/>
-      <c r="CG7" s="86"/>
-      <c r="CH7" s="86"/>
-      <c r="CI7" s="86"/>
-      <c r="CJ7" s="86"/>
-      <c r="CK7" s="86"/>
-      <c r="CL7" s="86"/>
-      <c r="CM7" s="86"/>
-      <c r="CN7" s="86"/>
-      <c r="CO7" s="86"/>
-      <c r="CP7" s="86"/>
-      <c r="CQ7" s="86"/>
-      <c r="CR7" s="86"/>
-      <c r="CS7" s="86"/>
-      <c r="CT7" s="86"/>
-      <c r="CU7" s="86"/>
-      <c r="CV7" s="86"/>
-      <c r="CW7" s="86"/>
-      <c r="CX7" s="86"/>
-      <c r="CY7" s="86"/>
-      <c r="CZ7" s="86"/>
-      <c r="DA7" s="86"/>
-      <c r="DB7" s="86"/>
-      <c r="DC7" s="86"/>
-      <c r="DD7" s="86"/>
-      <c r="DE7" s="86"/>
-      <c r="DF7" s="86"/>
-      <c r="DG7" s="86"/>
-      <c r="DH7" s="86"/>
-      <c r="DI7" s="86"/>
-      <c r="DJ7" s="86"/>
-      <c r="DK7" s="86"/>
-      <c r="DL7" s="86"/>
-      <c r="DM7" s="86"/>
-      <c r="DN7" s="86"/>
-      <c r="DO7" s="86"/>
-      <c r="DP7" s="86"/>
-      <c r="DQ7" s="86"/>
-      <c r="DR7" s="86"/>
-      <c r="DS7" s="86"/>
-      <c r="DT7" s="86"/>
-      <c r="DU7" s="86"/>
-      <c r="DV7" s="86"/>
-      <c r="DW7" s="86"/>
-      <c r="DX7" s="86"/>
-      <c r="DY7" s="87"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84"/>
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="84"/>
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="84"/>
+      <c r="BA7" s="84"/>
+      <c r="BB7" s="84"/>
+      <c r="BC7" s="84"/>
+      <c r="BD7" s="84"/>
+      <c r="BE7" s="84"/>
+      <c r="BF7" s="84"/>
+      <c r="BG7" s="84"/>
+      <c r="BH7" s="84"/>
+      <c r="BI7" s="84"/>
+      <c r="BJ7" s="84"/>
+      <c r="BK7" s="84"/>
+      <c r="BL7" s="84"/>
+      <c r="BM7" s="84"/>
+      <c r="BN7" s="84"/>
+      <c r="BO7" s="84"/>
+      <c r="BP7" s="84"/>
+      <c r="BQ7" s="84"/>
+      <c r="BR7" s="84"/>
+      <c r="BS7" s="84"/>
+      <c r="BT7" s="84"/>
+      <c r="BU7" s="84"/>
+      <c r="BV7" s="84"/>
+      <c r="BW7" s="84"/>
+      <c r="BX7" s="84"/>
+      <c r="BY7" s="84"/>
+      <c r="BZ7" s="84"/>
+      <c r="CA7" s="84"/>
+      <c r="CB7" s="84"/>
+      <c r="CC7" s="84"/>
+      <c r="CD7" s="84"/>
+      <c r="CE7" s="84"/>
+      <c r="CF7" s="84"/>
+      <c r="CG7" s="84"/>
+      <c r="CH7" s="84"/>
+      <c r="CI7" s="84"/>
+      <c r="CJ7" s="84"/>
+      <c r="CK7" s="84"/>
+      <c r="CL7" s="84"/>
+      <c r="CM7" s="84"/>
+      <c r="CN7" s="84"/>
+      <c r="CO7" s="84"/>
+      <c r="CP7" s="84"/>
+      <c r="CQ7" s="84"/>
+      <c r="CR7" s="84"/>
+      <c r="CS7" s="84"/>
+      <c r="CT7" s="84"/>
+      <c r="CU7" s="84"/>
+      <c r="CV7" s="84"/>
+      <c r="CW7" s="84"/>
+      <c r="CX7" s="84"/>
+      <c r="CY7" s="84"/>
+      <c r="CZ7" s="84"/>
+      <c r="DA7" s="84"/>
+      <c r="DB7" s="84"/>
+      <c r="DC7" s="84"/>
+      <c r="DD7" s="84"/>
+      <c r="DE7" s="84"/>
+      <c r="DF7" s="84"/>
+      <c r="DG7" s="84"/>
+      <c r="DH7" s="84"/>
+      <c r="DI7" s="84"/>
+      <c r="DJ7" s="84"/>
+      <c r="DK7" s="84"/>
+      <c r="DL7" s="84"/>
+      <c r="DM7" s="84"/>
+      <c r="DN7" s="84"/>
+      <c r="DO7" s="84"/>
+      <c r="DP7" s="84"/>
+      <c r="DQ7" s="84"/>
+      <c r="DR7" s="84"/>
+      <c r="DS7" s="84"/>
+      <c r="DT7" s="84"/>
+      <c r="DU7" s="84"/>
+      <c r="DV7" s="84"/>
+      <c r="DW7" s="84"/>
+      <c r="DX7" s="84"/>
+      <c r="DY7" s="85"/>
     </row>
     <row r="8" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="107"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="14"/>
       <c r="G8" s="16"/>
       <c r="H8" s="38"/>
@@ -2967,125 +2967,125 @@
       <c r="N8" s="42"/>
       <c r="O8" s="38"/>
       <c r="P8" s="40"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="57"/>
+      <c r="U8" s="55"/>
       <c r="V8" s="44"/>
       <c r="W8" s="40"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
       <c r="AA8" s="40"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="89"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="89"/>
-      <c r="BA8" s="89"/>
-      <c r="BB8" s="89"/>
-      <c r="BC8" s="89"/>
-      <c r="BD8" s="89"/>
-      <c r="BE8" s="89"/>
-      <c r="BF8" s="89"/>
-      <c r="BG8" s="89"/>
-      <c r="BH8" s="89"/>
-      <c r="BI8" s="89"/>
-      <c r="BJ8" s="89"/>
-      <c r="BK8" s="89"/>
-      <c r="BL8" s="89"/>
-      <c r="BM8" s="89"/>
-      <c r="BN8" s="89"/>
-      <c r="BO8" s="89"/>
-      <c r="BP8" s="89"/>
-      <c r="BQ8" s="89"/>
-      <c r="BR8" s="89"/>
-      <c r="BS8" s="89"/>
-      <c r="BT8" s="89"/>
-      <c r="BU8" s="89"/>
-      <c r="BV8" s="89"/>
-      <c r="BW8" s="89"/>
-      <c r="BX8" s="89"/>
-      <c r="BY8" s="89"/>
-      <c r="BZ8" s="89"/>
-      <c r="CA8" s="89"/>
-      <c r="CB8" s="89"/>
-      <c r="CC8" s="89"/>
-      <c r="CD8" s="89"/>
-      <c r="CE8" s="89"/>
-      <c r="CF8" s="89"/>
-      <c r="CG8" s="89"/>
-      <c r="CH8" s="89"/>
-      <c r="CI8" s="89"/>
-      <c r="CJ8" s="89"/>
-      <c r="CK8" s="89"/>
-      <c r="CL8" s="89"/>
-      <c r="CM8" s="89"/>
-      <c r="CN8" s="89"/>
-      <c r="CO8" s="89"/>
-      <c r="CP8" s="89"/>
-      <c r="CQ8" s="89"/>
-      <c r="CR8" s="89"/>
-      <c r="CS8" s="89"/>
-      <c r="CT8" s="89"/>
-      <c r="CU8" s="89"/>
-      <c r="CV8" s="89"/>
-      <c r="CW8" s="89"/>
-      <c r="CX8" s="89"/>
-      <c r="CY8" s="89"/>
-      <c r="CZ8" s="89"/>
-      <c r="DA8" s="89"/>
-      <c r="DB8" s="89"/>
-      <c r="DC8" s="89"/>
-      <c r="DD8" s="89"/>
-      <c r="DE8" s="89"/>
-      <c r="DF8" s="89"/>
-      <c r="DG8" s="89"/>
-      <c r="DH8" s="89"/>
-      <c r="DI8" s="89"/>
-      <c r="DJ8" s="89"/>
-      <c r="DK8" s="89"/>
-      <c r="DL8" s="89"/>
-      <c r="DM8" s="89"/>
-      <c r="DN8" s="89"/>
-      <c r="DO8" s="89"/>
-      <c r="DP8" s="89"/>
-      <c r="DQ8" s="89"/>
-      <c r="DR8" s="89"/>
-      <c r="DS8" s="89"/>
-      <c r="DT8" s="89"/>
-      <c r="DU8" s="89"/>
-      <c r="DV8" s="89"/>
-      <c r="DW8" s="89"/>
-      <c r="DX8" s="89"/>
-      <c r="DY8" s="90"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="87"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="87"/>
+      <c r="AZ8" s="87"/>
+      <c r="BA8" s="87"/>
+      <c r="BB8" s="87"/>
+      <c r="BC8" s="87"/>
+      <c r="BD8" s="87"/>
+      <c r="BE8" s="87"/>
+      <c r="BF8" s="87"/>
+      <c r="BG8" s="87"/>
+      <c r="BH8" s="87"/>
+      <c r="BI8" s="87"/>
+      <c r="BJ8" s="87"/>
+      <c r="BK8" s="87"/>
+      <c r="BL8" s="87"/>
+      <c r="BM8" s="87"/>
+      <c r="BN8" s="87"/>
+      <c r="BO8" s="87"/>
+      <c r="BP8" s="87"/>
+      <c r="BQ8" s="87"/>
+      <c r="BR8" s="87"/>
+      <c r="BS8" s="87"/>
+      <c r="BT8" s="87"/>
+      <c r="BU8" s="87"/>
+      <c r="BV8" s="87"/>
+      <c r="BW8" s="87"/>
+      <c r="BX8" s="87"/>
+      <c r="BY8" s="87"/>
+      <c r="BZ8" s="87"/>
+      <c r="CA8" s="87"/>
+      <c r="CB8" s="87"/>
+      <c r="CC8" s="87"/>
+      <c r="CD8" s="87"/>
+      <c r="CE8" s="87"/>
+      <c r="CF8" s="87"/>
+      <c r="CG8" s="87"/>
+      <c r="CH8" s="87"/>
+      <c r="CI8" s="87"/>
+      <c r="CJ8" s="87"/>
+      <c r="CK8" s="87"/>
+      <c r="CL8" s="87"/>
+      <c r="CM8" s="87"/>
+      <c r="CN8" s="87"/>
+      <c r="CO8" s="87"/>
+      <c r="CP8" s="87"/>
+      <c r="CQ8" s="87"/>
+      <c r="CR8" s="87"/>
+      <c r="CS8" s="87"/>
+      <c r="CT8" s="87"/>
+      <c r="CU8" s="87"/>
+      <c r="CV8" s="87"/>
+      <c r="CW8" s="87"/>
+      <c r="CX8" s="87"/>
+      <c r="CY8" s="87"/>
+      <c r="CZ8" s="87"/>
+      <c r="DA8" s="87"/>
+      <c r="DB8" s="87"/>
+      <c r="DC8" s="87"/>
+      <c r="DD8" s="87"/>
+      <c r="DE8" s="87"/>
+      <c r="DF8" s="87"/>
+      <c r="DG8" s="87"/>
+      <c r="DH8" s="87"/>
+      <c r="DI8" s="87"/>
+      <c r="DJ8" s="87"/>
+      <c r="DK8" s="87"/>
+      <c r="DL8" s="87"/>
+      <c r="DM8" s="87"/>
+      <c r="DN8" s="87"/>
+      <c r="DO8" s="87"/>
+      <c r="DP8" s="87"/>
+      <c r="DQ8" s="87"/>
+      <c r="DR8" s="87"/>
+      <c r="DS8" s="87"/>
+      <c r="DT8" s="87"/>
+      <c r="DU8" s="87"/>
+      <c r="DV8" s="87"/>
+      <c r="DW8" s="87"/>
+      <c r="DX8" s="87"/>
+      <c r="DY8" s="88"/>
     </row>
     <row r="9" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="108"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="12"/>
       <c r="G9" s="10"/>
       <c r="H9" s="39"/>
@@ -3097,24 +3097,24 @@
       <c r="N9" s="43"/>
       <c r="O9" s="39"/>
       <c r="P9" s="41"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="56"/>
       <c r="V9" s="45"/>
       <c r="W9" s="41"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
       <c r="AA9" s="41"/>
-      <c r="AB9" s="71"/>
+      <c r="AB9" s="69"/>
     </row>
     <row r="10" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="12"/>
       <c r="G10" s="10"/>
       <c r="H10" s="39"/>
@@ -3126,24 +3126,24 @@
       <c r="N10" s="43"/>
       <c r="O10" s="39"/>
       <c r="P10" s="41"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="56"/>
       <c r="V10" s="45"/>
       <c r="W10" s="41"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
       <c r="AA10" s="41"/>
-      <c r="AB10" s="71"/>
+      <c r="AB10" s="69"/>
     </row>
     <row r="11" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="108"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="12"/>
       <c r="G11" s="10"/>
       <c r="H11" s="39"/>
@@ -3155,24 +3155,24 @@
       <c r="N11" s="43"/>
       <c r="O11" s="39"/>
       <c r="P11" s="41"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="56"/>
       <c r="V11" s="45"/>
       <c r="W11" s="41"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
       <c r="AA11" s="41"/>
-      <c r="AB11" s="71"/>
+      <c r="AB11" s="69"/>
     </row>
     <row r="12" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="108"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="12"/>
       <c r="G12" s="10"/>
       <c r="H12" s="39"/>
@@ -3184,24 +3184,24 @@
       <c r="N12" s="43"/>
       <c r="O12" s="39"/>
       <c r="P12" s="41"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="58"/>
+      <c r="U12" s="56"/>
       <c r="V12" s="45"/>
       <c r="W12" s="41"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
       <c r="AA12" s="41"/>
-      <c r="AB12" s="71"/>
+      <c r="AB12" s="69"/>
     </row>
     <row r="13" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="108"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="12"/>
       <c r="G13" s="10"/>
       <c r="H13" s="39"/>
@@ -3213,24 +3213,24 @@
       <c r="N13" s="43"/>
       <c r="O13" s="39"/>
       <c r="P13" s="41"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="56"/>
       <c r="V13" s="45"/>
       <c r="W13" s="41"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
       <c r="AA13" s="41"/>
-      <c r="AB13" s="71"/>
+      <c r="AB13" s="69"/>
     </row>
     <row r="14" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="108"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="12"/>
       <c r="G14" s="10"/>
       <c r="H14" s="39"/>
@@ -3242,24 +3242,24 @@
       <c r="N14" s="43"/>
       <c r="O14" s="39"/>
       <c r="P14" s="41"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="56"/>
       <c r="V14" s="45"/>
       <c r="W14" s="41"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
       <c r="AA14" s="41"/>
-      <c r="AB14" s="71"/>
+      <c r="AB14" s="69"/>
     </row>
     <row r="15" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="108"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="12"/>
       <c r="G15" s="10"/>
       <c r="H15" s="39"/>
@@ -3271,24 +3271,24 @@
       <c r="N15" s="43"/>
       <c r="O15" s="39"/>
       <c r="P15" s="41"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
       <c r="T15" s="41"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="56"/>
       <c r="V15" s="45"/>
       <c r="W15" s="41"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
       <c r="AA15" s="41"/>
-      <c r="AB15" s="71"/>
+      <c r="AB15" s="69"/>
     </row>
     <row r="16" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="108"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="106"/>
       <c r="F16" s="12"/>
       <c r="G16" s="10"/>
       <c r="H16" s="39"/>
@@ -3300,24 +3300,24 @@
       <c r="N16" s="43"/>
       <c r="O16" s="39"/>
       <c r="P16" s="41"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
       <c r="T16" s="41"/>
-      <c r="U16" s="58"/>
+      <c r="U16" s="56"/>
       <c r="V16" s="45"/>
       <c r="W16" s="41"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
       <c r="AA16" s="41"/>
-      <c r="AB16" s="71"/>
+      <c r="AB16" s="69"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="108"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="106"/>
       <c r="F17" s="12"/>
       <c r="G17" s="10"/>
       <c r="H17" s="39"/>
@@ -3329,24 +3329,24 @@
       <c r="N17" s="43"/>
       <c r="O17" s="39"/>
       <c r="P17" s="41"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
       <c r="T17" s="41"/>
-      <c r="U17" s="58"/>
+      <c r="U17" s="56"/>
       <c r="V17" s="45"/>
       <c r="W17" s="41"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
       <c r="AA17" s="41"/>
-      <c r="AB17" s="71"/>
+      <c r="AB17" s="69"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="108"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="106"/>
       <c r="F18" s="12"/>
       <c r="G18" s="10"/>
       <c r="H18" s="39"/>
@@ -3358,24 +3358,24 @@
       <c r="N18" s="43"/>
       <c r="O18" s="39"/>
       <c r="P18" s="41"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
       <c r="T18" s="41"/>
-      <c r="U18" s="58"/>
+      <c r="U18" s="56"/>
       <c r="V18" s="45"/>
       <c r="W18" s="41"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
       <c r="AA18" s="41"/>
-      <c r="AB18" s="71"/>
+      <c r="AB18" s="69"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="108"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="106"/>
       <c r="F19" s="12"/>
       <c r="G19" s="10"/>
       <c r="H19" s="39"/>
@@ -3387,24 +3387,24 @@
       <c r="N19" s="43"/>
       <c r="O19" s="39"/>
       <c r="P19" s="41"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
       <c r="T19" s="41"/>
-      <c r="U19" s="58"/>
+      <c r="U19" s="56"/>
       <c r="V19" s="45"/>
       <c r="W19" s="41"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
       <c r="AA19" s="41"/>
-      <c r="AB19" s="71"/>
+      <c r="AB19" s="69"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="108"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="106"/>
       <c r="F20" s="12"/>
       <c r="G20" s="10"/>
       <c r="H20" s="39"/>
@@ -3416,24 +3416,24 @@
       <c r="N20" s="43"/>
       <c r="O20" s="39"/>
       <c r="P20" s="41"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
       <c r="T20" s="41"/>
-      <c r="U20" s="58"/>
+      <c r="U20" s="56"/>
       <c r="V20" s="45"/>
       <c r="W20" s="41"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
       <c r="AA20" s="41"/>
-      <c r="AB20" s="71"/>
+      <c r="AB20" s="69"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="108"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="12"/>
       <c r="G21" s="10"/>
       <c r="H21" s="39"/>
@@ -3445,24 +3445,24 @@
       <c r="N21" s="43"/>
       <c r="O21" s="39"/>
       <c r="P21" s="41"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
       <c r="T21" s="41"/>
-      <c r="U21" s="58"/>
+      <c r="U21" s="56"/>
       <c r="V21" s="45"/>
       <c r="W21" s="41"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
       <c r="AA21" s="41"/>
-      <c r="AB21" s="71"/>
+      <c r="AB21" s="69"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="108"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="12"/>
       <c r="G22" s="10"/>
       <c r="H22" s="39"/>
@@ -3474,24 +3474,24 @@
       <c r="N22" s="43"/>
       <c r="O22" s="39"/>
       <c r="P22" s="41"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
       <c r="T22" s="41"/>
-      <c r="U22" s="58"/>
+      <c r="U22" s="56"/>
       <c r="V22" s="45"/>
       <c r="W22" s="41"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
       <c r="AA22" s="41"/>
-      <c r="AB22" s="71"/>
+      <c r="AB22" s="69"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="12"/>
       <c r="G23" s="10"/>
       <c r="H23" s="39"/>
@@ -3503,24 +3503,24 @@
       <c r="N23" s="43"/>
       <c r="O23" s="39"/>
       <c r="P23" s="41"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
       <c r="T23" s="41"/>
-      <c r="U23" s="58"/>
+      <c r="U23" s="56"/>
       <c r="V23" s="45"/>
       <c r="W23" s="41"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
       <c r="AA23" s="41"/>
-      <c r="AB23" s="71"/>
+      <c r="AB23" s="69"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="108"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="12"/>
       <c r="G24" s="10"/>
       <c r="H24" s="39"/>
@@ -3532,24 +3532,24 @@
       <c r="N24" s="43"/>
       <c r="O24" s="39"/>
       <c r="P24" s="41"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
       <c r="T24" s="41"/>
-      <c r="U24" s="58"/>
+      <c r="U24" s="56"/>
       <c r="V24" s="45"/>
       <c r="W24" s="41"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
       <c r="AA24" s="41"/>
-      <c r="AB24" s="71"/>
+      <c r="AB24" s="69"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="108"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="106"/>
       <c r="F25" s="12"/>
       <c r="G25" s="10"/>
       <c r="H25" s="39"/>
@@ -3561,24 +3561,24 @@
       <c r="N25" s="43"/>
       <c r="O25" s="39"/>
       <c r="P25" s="41"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
       <c r="T25" s="41"/>
-      <c r="U25" s="58"/>
+      <c r="U25" s="56"/>
       <c r="V25" s="45"/>
       <c r="W25" s="41"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
       <c r="AA25" s="41"/>
-      <c r="AB25" s="71"/>
+      <c r="AB25" s="69"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="108"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="12"/>
       <c r="G26" s="10"/>
       <c r="H26" s="39"/>
@@ -3590,24 +3590,24 @@
       <c r="N26" s="43"/>
       <c r="O26" s="39"/>
       <c r="P26" s="41"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
       <c r="T26" s="41"/>
-      <c r="U26" s="58"/>
+      <c r="U26" s="56"/>
       <c r="V26" s="45"/>
       <c r="W26" s="41"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="61"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
       <c r="AA26" s="41"/>
-      <c r="AB26" s="71"/>
+      <c r="AB26" s="69"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="108"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="12"/>
       <c r="G27" s="10"/>
       <c r="H27" s="39"/>
@@ -3619,24 +3619,24 @@
       <c r="N27" s="43"/>
       <c r="O27" s="39"/>
       <c r="P27" s="41"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
       <c r="T27" s="41"/>
-      <c r="U27" s="58"/>
+      <c r="U27" s="56"/>
       <c r="V27" s="45"/>
       <c r="W27" s="41"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
       <c r="AA27" s="41"/>
-      <c r="AB27" s="71"/>
+      <c r="AB27" s="69"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="108"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="12"/>
       <c r="G28" s="10"/>
       <c r="H28" s="39"/>
@@ -3648,24 +3648,24 @@
       <c r="N28" s="43"/>
       <c r="O28" s="39"/>
       <c r="P28" s="41"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
       <c r="T28" s="41"/>
-      <c r="U28" s="58"/>
+      <c r="U28" s="56"/>
       <c r="V28" s="45"/>
       <c r="W28" s="41"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
       <c r="AA28" s="41"/>
-      <c r="AB28" s="71"/>
+      <c r="AB28" s="69"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="108"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="106"/>
       <c r="F29" s="12"/>
       <c r="G29" s="10"/>
       <c r="H29" s="39"/>
@@ -3677,24 +3677,24 @@
       <c r="N29" s="43"/>
       <c r="O29" s="39"/>
       <c r="P29" s="41"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
       <c r="T29" s="41"/>
-      <c r="U29" s="58"/>
+      <c r="U29" s="56"/>
       <c r="V29" s="45"/>
       <c r="W29" s="41"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="61"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
       <c r="AA29" s="41"/>
-      <c r="AB29" s="71"/>
+      <c r="AB29" s="69"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="108"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="106"/>
       <c r="F30" s="12"/>
       <c r="G30" s="10"/>
       <c r="H30" s="39"/>
@@ -3706,24 +3706,24 @@
       <c r="N30" s="43"/>
       <c r="O30" s="39"/>
       <c r="P30" s="41"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
       <c r="T30" s="41"/>
-      <c r="U30" s="58"/>
+      <c r="U30" s="56"/>
       <c r="V30" s="45"/>
       <c r="W30" s="41"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
-      <c r="Z30" s="61"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
       <c r="AA30" s="41"/>
-      <c r="AB30" s="71"/>
+      <c r="AB30" s="69"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="108"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="106"/>
       <c r="F31" s="12"/>
       <c r="G31" s="10"/>
       <c r="H31" s="39"/>
@@ -3735,24 +3735,24 @@
       <c r="N31" s="43"/>
       <c r="O31" s="39"/>
       <c r="P31" s="41"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
       <c r="T31" s="41"/>
-      <c r="U31" s="58"/>
+      <c r="U31" s="56"/>
       <c r="V31" s="45"/>
       <c r="W31" s="41"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
       <c r="AA31" s="41"/>
-      <c r="AB31" s="71"/>
+      <c r="AB31" s="69"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="108"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="106"/>
       <c r="F32" s="12"/>
       <c r="G32" s="10"/>
       <c r="H32" s="39"/>
@@ -3764,24 +3764,24 @@
       <c r="N32" s="43"/>
       <c r="O32" s="39"/>
       <c r="P32" s="41"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
       <c r="T32" s="41"/>
-      <c r="U32" s="58"/>
+      <c r="U32" s="56"/>
       <c r="V32" s="45"/>
       <c r="W32" s="41"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="61"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
       <c r="AA32" s="41"/>
-      <c r="AB32" s="71"/>
+      <c r="AB32" s="69"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="108"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="106"/>
       <c r="F33" s="12"/>
       <c r="G33" s="10"/>
       <c r="H33" s="39"/>
@@ -3793,24 +3793,24 @@
       <c r="N33" s="43"/>
       <c r="O33" s="39"/>
       <c r="P33" s="41"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
       <c r="T33" s="41"/>
-      <c r="U33" s="58"/>
+      <c r="U33" s="56"/>
       <c r="V33" s="45"/>
       <c r="W33" s="41"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="61"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
       <c r="AA33" s="41"/>
-      <c r="AB33" s="71"/>
+      <c r="AB33" s="69"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="108"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="106"/>
       <c r="F34" s="12"/>
       <c r="G34" s="10"/>
       <c r="H34" s="39"/>
@@ -3822,24 +3822,24 @@
       <c r="N34" s="43"/>
       <c r="O34" s="39"/>
       <c r="P34" s="41"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
       <c r="T34" s="41"/>
-      <c r="U34" s="58"/>
+      <c r="U34" s="56"/>
       <c r="V34" s="45"/>
       <c r="W34" s="41"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="61"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
       <c r="AA34" s="41"/>
-      <c r="AB34" s="71"/>
+      <c r="AB34" s="69"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="108"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="12"/>
       <c r="G35" s="10"/>
       <c r="H35" s="39"/>
@@ -3851,24 +3851,24 @@
       <c r="N35" s="43"/>
       <c r="O35" s="39"/>
       <c r="P35" s="41"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
       <c r="T35" s="41"/>
-      <c r="U35" s="58"/>
+      <c r="U35" s="56"/>
       <c r="V35" s="45"/>
       <c r="W35" s="41"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="61"/>
-      <c r="Z35" s="61"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
       <c r="AA35" s="41"/>
-      <c r="AB35" s="71"/>
+      <c r="AB35" s="69"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="108"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="12"/>
       <c r="G36" s="10"/>
       <c r="H36" s="39"/>
@@ -3880,24 +3880,24 @@
       <c r="N36" s="43"/>
       <c r="O36" s="39"/>
       <c r="P36" s="41"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
       <c r="T36" s="41"/>
-      <c r="U36" s="58"/>
+      <c r="U36" s="56"/>
       <c r="V36" s="45"/>
       <c r="W36" s="41"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="61"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
       <c r="AA36" s="41"/>
-      <c r="AB36" s="71"/>
+      <c r="AB36" s="69"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="108"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="12"/>
       <c r="G37" s="10"/>
       <c r="H37" s="39"/>
@@ -3909,24 +3909,24 @@
       <c r="N37" s="43"/>
       <c r="O37" s="39"/>
       <c r="P37" s="41"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
       <c r="T37" s="41"/>
-      <c r="U37" s="58"/>
+      <c r="U37" s="56"/>
       <c r="V37" s="45"/>
       <c r="W37" s="41"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="61"/>
-      <c r="Z37" s="61"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
       <c r="AA37" s="41"/>
-      <c r="AB37" s="71"/>
+      <c r="AB37" s="69"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="108"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="106"/>
       <c r="F38" s="12"/>
       <c r="G38" s="10"/>
       <c r="H38" s="39"/>
@@ -3938,24 +3938,24 @@
       <c r="N38" s="43"/>
       <c r="O38" s="39"/>
       <c r="P38" s="41"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
       <c r="T38" s="41"/>
-      <c r="U38" s="58"/>
+      <c r="U38" s="56"/>
       <c r="V38" s="45"/>
       <c r="W38" s="41"/>
-      <c r="X38" s="61"/>
-      <c r="Y38" s="61"/>
-      <c r="Z38" s="61"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
       <c r="AA38" s="41"/>
-      <c r="AB38" s="71"/>
+      <c r="AB38" s="69"/>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="108"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="106"/>
       <c r="F39" s="12"/>
       <c r="G39" s="10"/>
       <c r="H39" s="39"/>
@@ -3967,24 +3967,24 @@
       <c r="N39" s="43"/>
       <c r="O39" s="39"/>
       <c r="P39" s="41"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
       <c r="T39" s="41"/>
-      <c r="U39" s="58"/>
+      <c r="U39" s="56"/>
       <c r="V39" s="45"/>
       <c r="W39" s="41"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="61"/>
-      <c r="Z39" s="61"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
       <c r="AA39" s="41"/>
-      <c r="AB39" s="71"/>
+      <c r="AB39" s="69"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="108"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="106"/>
       <c r="F40" s="12"/>
       <c r="G40" s="10"/>
       <c r="H40" s="39"/>
@@ -3996,24 +3996,24 @@
       <c r="N40" s="43"/>
       <c r="O40" s="39"/>
       <c r="P40" s="41"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
       <c r="T40" s="41"/>
-      <c r="U40" s="58"/>
+      <c r="U40" s="56"/>
       <c r="V40" s="45"/>
       <c r="W40" s="41"/>
-      <c r="X40" s="61"/>
-      <c r="Y40" s="61"/>
-      <c r="Z40" s="61"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
       <c r="AA40" s="41"/>
-      <c r="AB40" s="71"/>
+      <c r="AB40" s="69"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="108"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="12"/>
       <c r="G41" s="10"/>
       <c r="H41" s="39"/>
@@ -4025,24 +4025,24 @@
       <c r="N41" s="43"/>
       <c r="O41" s="39"/>
       <c r="P41" s="41"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="61"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
       <c r="T41" s="41"/>
-      <c r="U41" s="58"/>
+      <c r="U41" s="56"/>
       <c r="V41" s="45"/>
       <c r="W41" s="41"/>
-      <c r="X41" s="61"/>
-      <c r="Y41" s="61"/>
-      <c r="Z41" s="61"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
       <c r="AA41" s="41"/>
-      <c r="AB41" s="71"/>
+      <c r="AB41" s="69"/>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="108"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="106"/>
       <c r="F42" s="12"/>
       <c r="G42" s="10"/>
       <c r="H42" s="39"/>
@@ -4054,24 +4054,24 @@
       <c r="N42" s="43"/>
       <c r="O42" s="39"/>
       <c r="P42" s="41"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
       <c r="T42" s="41"/>
-      <c r="U42" s="58"/>
+      <c r="U42" s="56"/>
       <c r="V42" s="45"/>
       <c r="W42" s="41"/>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="61"/>
-      <c r="Z42" s="61"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
       <c r="AA42" s="41"/>
-      <c r="AB42" s="71"/>
+      <c r="AB42" s="69"/>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="108"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="106"/>
       <c r="F43" s="12"/>
       <c r="G43" s="10"/>
       <c r="H43" s="39"/>
@@ -4083,24 +4083,24 @@
       <c r="N43" s="43"/>
       <c r="O43" s="39"/>
       <c r="P43" s="41"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="61"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
       <c r="T43" s="41"/>
-      <c r="U43" s="58"/>
+      <c r="U43" s="56"/>
       <c r="V43" s="45"/>
       <c r="W43" s="41"/>
-      <c r="X43" s="61"/>
-      <c r="Y43" s="61"/>
-      <c r="Z43" s="61"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
       <c r="AA43" s="41"/>
-      <c r="AB43" s="71"/>
+      <c r="AB43" s="69"/>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="108"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="106"/>
       <c r="F44" s="12"/>
       <c r="G44" s="10"/>
       <c r="H44" s="39"/>
@@ -4112,24 +4112,24 @@
       <c r="N44" s="43"/>
       <c r="O44" s="39"/>
       <c r="P44" s="41"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
       <c r="T44" s="41"/>
-      <c r="U44" s="58"/>
+      <c r="U44" s="56"/>
       <c r="V44" s="45"/>
       <c r="W44" s="41"/>
-      <c r="X44" s="61"/>
-      <c r="Y44" s="61"/>
-      <c r="Z44" s="61"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
       <c r="AA44" s="41"/>
-      <c r="AB44" s="71"/>
+      <c r="AB44" s="69"/>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="108"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="106"/>
       <c r="F45" s="12"/>
       <c r="G45" s="10"/>
       <c r="H45" s="39"/>
@@ -4141,24 +4141,24 @@
       <c r="N45" s="43"/>
       <c r="O45" s="39"/>
       <c r="P45" s="41"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="61"/>
-      <c r="S45" s="61"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
       <c r="T45" s="41"/>
-      <c r="U45" s="58"/>
+      <c r="U45" s="56"/>
       <c r="V45" s="45"/>
       <c r="W45" s="41"/>
-      <c r="X45" s="61"/>
-      <c r="Y45" s="61"/>
-      <c r="Z45" s="61"/>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
+      <c r="Z45" s="59"/>
       <c r="AA45" s="41"/>
-      <c r="AB45" s="71"/>
+      <c r="AB45" s="69"/>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="108"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="106"/>
       <c r="F46" s="12"/>
       <c r="G46" s="10"/>
       <c r="H46" s="39"/>
@@ -4170,24 +4170,24 @@
       <c r="N46" s="43"/>
       <c r="O46" s="39"/>
       <c r="P46" s="41"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59"/>
+      <c r="S46" s="59"/>
       <c r="T46" s="41"/>
-      <c r="U46" s="58"/>
+      <c r="U46" s="56"/>
       <c r="V46" s="45"/>
       <c r="W46" s="41"/>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="61"/>
-      <c r="Z46" s="61"/>
+      <c r="X46" s="59"/>
+      <c r="Y46" s="59"/>
+      <c r="Z46" s="59"/>
       <c r="AA46" s="41"/>
-      <c r="AB46" s="71"/>
+      <c r="AB46" s="69"/>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="108"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="106"/>
       <c r="F47" s="12"/>
       <c r="G47" s="10"/>
       <c r="H47" s="39"/>
@@ -4199,24 +4199,24 @@
       <c r="N47" s="43"/>
       <c r="O47" s="39"/>
       <c r="P47" s="41"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="61"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="59"/>
       <c r="T47" s="41"/>
-      <c r="U47" s="58"/>
+      <c r="U47" s="56"/>
       <c r="V47" s="45"/>
       <c r="W47" s="41"/>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="61"/>
+      <c r="X47" s="59"/>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="59"/>
       <c r="AA47" s="41"/>
-      <c r="AB47" s="71"/>
+      <c r="AB47" s="69"/>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="108"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="106"/>
       <c r="F48" s="12"/>
       <c r="G48" s="10"/>
       <c r="H48" s="39"/>
@@ -4228,24 +4228,24 @@
       <c r="N48" s="43"/>
       <c r="O48" s="39"/>
       <c r="P48" s="41"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="61"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
       <c r="T48" s="41"/>
-      <c r="U48" s="58"/>
+      <c r="U48" s="56"/>
       <c r="V48" s="45"/>
       <c r="W48" s="41"/>
-      <c r="X48" s="61"/>
-      <c r="Y48" s="61"/>
-      <c r="Z48" s="61"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="59"/>
       <c r="AA48" s="41"/>
-      <c r="AB48" s="71"/>
+      <c r="AB48" s="69"/>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="108"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="106"/>
       <c r="F49" s="12"/>
       <c r="G49" s="10"/>
       <c r="H49" s="39"/>
@@ -4257,24 +4257,24 @@
       <c r="N49" s="43"/>
       <c r="O49" s="39"/>
       <c r="P49" s="41"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
       <c r="T49" s="41"/>
-      <c r="U49" s="58"/>
+      <c r="U49" s="56"/>
       <c r="V49" s="45"/>
       <c r="W49" s="41"/>
-      <c r="X49" s="61"/>
-      <c r="Y49" s="61"/>
-      <c r="Z49" s="61"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="59"/>
       <c r="AA49" s="41"/>
-      <c r="AB49" s="71"/>
+      <c r="AB49" s="69"/>
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="108"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="106"/>
       <c r="F50" s="12"/>
       <c r="G50" s="10"/>
       <c r="H50" s="39"/>
@@ -4286,24 +4286,24 @@
       <c r="N50" s="43"/>
       <c r="O50" s="39"/>
       <c r="P50" s="41"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61"/>
-      <c r="S50" s="61"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
       <c r="T50" s="41"/>
-      <c r="U50" s="58"/>
+      <c r="U50" s="56"/>
       <c r="V50" s="45"/>
       <c r="W50" s="41"/>
-      <c r="X50" s="61"/>
-      <c r="Y50" s="61"/>
-      <c r="Z50" s="61"/>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="59"/>
+      <c r="Z50" s="59"/>
       <c r="AA50" s="41"/>
-      <c r="AB50" s="71"/>
+      <c r="AB50" s="69"/>
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="108"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="106"/>
       <c r="F51" s="12"/>
       <c r="G51" s="10"/>
       <c r="H51" s="39"/>
@@ -4315,24 +4315,24 @@
       <c r="N51" s="43"/>
       <c r="O51" s="39"/>
       <c r="P51" s="41"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
       <c r="T51" s="41"/>
-      <c r="U51" s="58"/>
+      <c r="U51" s="56"/>
       <c r="V51" s="45"/>
       <c r="W51" s="41"/>
-      <c r="X51" s="61"/>
-      <c r="Y51" s="61"/>
-      <c r="Z51" s="61"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="59"/>
       <c r="AA51" s="41"/>
-      <c r="AB51" s="71"/>
+      <c r="AB51" s="69"/>
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="108"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="106"/>
       <c r="F52" s="12"/>
       <c r="G52" s="10"/>
       <c r="H52" s="39"/>
@@ -4344,24 +4344,24 @@
       <c r="N52" s="43"/>
       <c r="O52" s="39"/>
       <c r="P52" s="41"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="61"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
       <c r="T52" s="41"/>
-      <c r="U52" s="58"/>
+      <c r="U52" s="56"/>
       <c r="V52" s="45"/>
       <c r="W52" s="41"/>
-      <c r="X52" s="61"/>
-      <c r="Y52" s="61"/>
-      <c r="Z52" s="61"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="59"/>
       <c r="AA52" s="41"/>
-      <c r="AB52" s="71"/>
+      <c r="AB52" s="69"/>
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="108"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="106"/>
       <c r="F53" s="12"/>
       <c r="G53" s="10"/>
       <c r="H53" s="39"/>
@@ -4373,24 +4373,24 @@
       <c r="N53" s="43"/>
       <c r="O53" s="39"/>
       <c r="P53" s="41"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
       <c r="T53" s="41"/>
-      <c r="U53" s="58"/>
+      <c r="U53" s="56"/>
       <c r="V53" s="45"/>
       <c r="W53" s="41"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="61"/>
-      <c r="Z53" s="61"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="59"/>
       <c r="AA53" s="41"/>
-      <c r="AB53" s="71"/>
+      <c r="AB53" s="69"/>
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="108"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="106"/>
       <c r="F54" s="12"/>
       <c r="G54" s="10"/>
       <c r="H54" s="39"/>
@@ -4402,24 +4402,24 @@
       <c r="N54" s="43"/>
       <c r="O54" s="39"/>
       <c r="P54" s="41"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="61"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
       <c r="T54" s="41"/>
-      <c r="U54" s="58"/>
+      <c r="U54" s="56"/>
       <c r="V54" s="45"/>
       <c r="W54" s="41"/>
-      <c r="X54" s="61"/>
-      <c r="Y54" s="61"/>
-      <c r="Z54" s="61"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="59"/>
       <c r="AA54" s="41"/>
-      <c r="AB54" s="71"/>
+      <c r="AB54" s="69"/>
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="108"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="106"/>
       <c r="F55" s="12"/>
       <c r="G55" s="10"/>
       <c r="H55" s="39"/>
@@ -4431,24 +4431,24 @@
       <c r="N55" s="43"/>
       <c r="O55" s="39"/>
       <c r="P55" s="41"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="61"/>
-      <c r="S55" s="61"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
       <c r="T55" s="41"/>
-      <c r="U55" s="58"/>
+      <c r="U55" s="56"/>
       <c r="V55" s="45"/>
       <c r="W55" s="41"/>
-      <c r="X55" s="61"/>
-      <c r="Y55" s="61"/>
-      <c r="Z55" s="61"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
       <c r="AA55" s="41"/>
-      <c r="AB55" s="71"/>
+      <c r="AB55" s="69"/>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="108"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="106"/>
       <c r="F56" s="12"/>
       <c r="G56" s="10"/>
       <c r="H56" s="39"/>
@@ -4460,24 +4460,24 @@
       <c r="N56" s="43"/>
       <c r="O56" s="39"/>
       <c r="P56" s="41"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="61"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
       <c r="T56" s="41"/>
-      <c r="U56" s="58"/>
+      <c r="U56" s="56"/>
       <c r="V56" s="45"/>
       <c r="W56" s="41"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="61"/>
-      <c r="Z56" s="61"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
       <c r="AA56" s="41"/>
-      <c r="AB56" s="71"/>
+      <c r="AB56" s="69"/>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="108"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="106"/>
       <c r="F57" s="12"/>
       <c r="G57" s="10"/>
       <c r="H57" s="39"/>
@@ -4489,21 +4489,21 @@
       <c r="N57" s="43"/>
       <c r="O57" s="39"/>
       <c r="P57" s="41"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="61"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
       <c r="T57" s="41"/>
-      <c r="U57" s="58"/>
+      <c r="U57" s="56"/>
       <c r="V57" s="45"/>
       <c r="W57" s="41"/>
-      <c r="X57" s="61"/>
-      <c r="Y57" s="61"/>
-      <c r="Z57" s="61"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
       <c r="AA57" s="41"/>
-      <c r="AB57" s="71"/>
+      <c r="AB57" s="69"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="W+DlrEc/YSimQqTx3lJVOCDC5qAfIp7cb9R7j1BtnB4P+qr6XPLdnQ9ALP8Ubn2kgg2e3Hvu4wIPOxmYqMb+ZQ==" saltValue="PXjGASDTOdQYfq7cPLOpjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d5WKeLWTYGYJgDTZ1jzuEfTjwRkxrGBwvs32Rz4YHSKkQJZtuU06JzJ2n5P/9bwsZQB8riPf0WYNRzeagL4xwg==" saltValue="w6TeK8/VmFmYqo4vVBESqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="AD3:DY3"/>
     <mergeCell ref="B2:AB3"/>
